--- a/codigo_final_organizado/analisis/Resultados_analisis/Tamaño/N_Train_100/Tests_Estadisticos/dm_comparaciones_LSPM_Lineal_Estacionario_ARMA.xlsx
+++ b/codigo_final_organizado/analisis/Resultados_analisis/Tamaño/N_Train_100/Tests_Estadisticos/dm_comparaciones_LSPM_Lineal_Estacionario_ARMA.xlsx
@@ -438,10 +438,10 @@
         <v>40</v>
       </c>
       <c r="C2">
-        <v>-1.407315883276114</v>
+        <v>-1.277764249695792</v>
       </c>
       <c r="D2">
-        <v>0.1595188326785413</v>
+        <v>0.2146515468495707</v>
       </c>
       <c r="E2">
         <v>0.7485214455368018</v>
@@ -464,10 +464,10 @@
         <v>60</v>
       </c>
       <c r="C3">
-        <v>-1.060218443530575</v>
+        <v>-1.090634122122024</v>
       </c>
       <c r="D3">
-        <v>0.2891977210892822</v>
+        <v>0.2872355508068913</v>
       </c>
       <c r="E3">
         <v>0.7485214455368018</v>
@@ -490,10 +490,10 @@
         <v>100</v>
       </c>
       <c r="C4">
-        <v>-1.393005074232301</v>
+        <v>-1.637746939638575</v>
       </c>
       <c r="D4">
-        <v>0.1638026595832369</v>
+        <v>0.1156996624296283</v>
       </c>
       <c r="E4">
         <v>0.7485214455368018</v>
@@ -516,10 +516,10 @@
         <v>200</v>
       </c>
       <c r="C5">
-        <v>-0.1999949840786785</v>
+        <v>-0.2135469831052462</v>
       </c>
       <c r="D5">
-        <v>0.8415087233381064</v>
+        <v>0.8328669779615083</v>
       </c>
       <c r="E5">
         <v>0.7485214455368018</v>
@@ -542,10 +542,10 @@
         <v>60</v>
       </c>
       <c r="C6">
-        <v>0.51252322922739</v>
+        <v>0.4311312426375424</v>
       </c>
       <c r="D6">
-        <v>0.6083522820092671</v>
+        <v>0.6705679721484286</v>
       </c>
       <c r="E6">
         <v>0.7906631079150058</v>
@@ -568,10 +568,10 @@
         <v>100</v>
       </c>
       <c r="C7">
-        <v>0.07534799298706853</v>
+        <v>0.06793892220197796</v>
       </c>
       <c r="D7">
-        <v>0.9399468133372586</v>
+        <v>0.9464479503244618</v>
       </c>
       <c r="E7">
         <v>0.7906631079150058</v>
@@ -594,10 +594,10 @@
         <v>200</v>
       </c>
       <c r="C8">
-        <v>1.160469957960351</v>
+        <v>0.9176137987026109</v>
       </c>
       <c r="D8">
-        <v>0.2460224938210243</v>
+        <v>0.3687718901240213</v>
       </c>
       <c r="E8">
         <v>0.7906631079150058</v>
@@ -620,10 +620,10 @@
         <v>100</v>
       </c>
       <c r="C9">
-        <v>-0.4146502487790922</v>
+        <v>-0.5064365978694232</v>
       </c>
       <c r="D9">
-        <v>0.6784509292548424</v>
+        <v>0.6175880866523229</v>
       </c>
       <c r="E9">
         <v>0.775897750281796</v>
@@ -646,10 +646,10 @@
         <v>200</v>
       </c>
       <c r="C10">
-        <v>0.8008914130825783</v>
+        <v>0.7678900580027761</v>
       </c>
       <c r="D10">
-        <v>0.4233078263003613</v>
+        <v>0.4507165179005195</v>
       </c>
       <c r="E10">
         <v>0.775897750281796</v>
@@ -672,10 +672,10 @@
         <v>200</v>
       </c>
       <c r="C11">
-        <v>1.098580843596833</v>
+        <v>1.388275669633499</v>
       </c>
       <c r="D11">
-        <v>0.2721084447084188</v>
+        <v>0.1789517303192221</v>
       </c>
       <c r="E11">
         <v>0.7882320114084096</v>
